--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432260A-4579-4F08-807C-8C370F72BD31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E7849-C6F2-429E-9E0A-2366E0342F28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25440" yWindow="1650" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="71">
   <si>
     <t>Username</t>
   </si>
@@ -179,6 +179,69 @@
   </si>
   <si>
     <t>smita.kakar</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Last Day</t>
+  </si>
+  <si>
+    <t>Last 2 Days</t>
+  </si>
+  <si>
+    <t>Last 10 Days</t>
+  </si>
+  <si>
+    <t>Last 2 Weeks</t>
+  </si>
+  <si>
+    <t>Last Month</t>
+  </si>
+  <si>
+    <t>Last 45 Days</t>
+  </si>
+  <si>
+    <t>Last 2 Months</t>
+  </si>
+  <si>
+    <t>Last 75 Days</t>
+  </si>
+  <si>
+    <t>Last 100 Days</t>
+  </si>
+  <si>
+    <t>Last Year</t>
+  </si>
+  <si>
+    <t>Beginning</t>
+  </si>
+  <si>
+    <t>Last Week</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Thread Title</t>
+  </si>
+  <si>
+    <t>Last Post Time</t>
+  </si>
+  <si>
+    <t>Thread Start Time</t>
+  </si>
+  <si>
+    <t>Number of Replies</t>
+  </si>
+  <si>
+    <t>Number of Views</t>
+  </si>
+  <si>
+    <t>Thread Starter</t>
+  </si>
+  <si>
+    <t>Thread Rating</t>
   </si>
 </sst>
 </file>
@@ -1196,72 +1259,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C94A49-4B67-4798-B108-0CA8681B408E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="Test@1234" xr:uid="{F7A13DC8-92BD-4A27-90AC-287431090A69}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1269,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E684704-4DB2-4239-AF97-434B602C99DF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E7849-C6F2-429E-9E0A-2366E0342F28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660163F1-1979-4192-B6DB-0F5C710F1B0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="1650" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
   <si>
     <t>Username</t>
   </si>
@@ -242,6 +242,33 @@
   </si>
   <si>
     <t>Thread Rating</t>
+  </si>
+  <si>
+    <t>Icon Legend</t>
+  </si>
+  <si>
+    <t>Contains unread posts</t>
+  </si>
+  <si>
+    <t>Contains no unread posts</t>
+  </si>
+  <si>
+    <t>Hot thread with unread posts</t>
+  </si>
+  <si>
+    <t>Hot thread with no unread posts</t>
+  </si>
+  <si>
+    <t>Thread is closed</t>
+  </si>
+  <si>
+    <t>You have posted in this thread</t>
+  </si>
+  <si>
+    <t>You are subscribed to this thread</t>
+  </si>
+  <si>
+    <t>Text to be searched</t>
   </si>
 </sst>
 </file>
@@ -1259,20 +1286,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C94A49-4B67-4798-B108-0CA8681B408E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -1282,8 +1311,14 @@
       <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1293,8 +1328,14 @@
       <c r="C2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1304,8 +1345,11 @@
       <c r="C3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1315,8 +1359,11 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1326,52 +1373,64 @@
       <c r="C5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>

--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660163F1-1979-4192-B6DB-0F5C710F1B0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3BE9FF-11B5-4046-933A-20486F5C6BD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
     <sheet name="Registration" sheetId="4" r:id="rId2"/>
     <sheet name="Disc_Categories" sheetId="5" r:id="rId3"/>
     <sheet name="Disc_CategoriesLogin" sheetId="7" r:id="rId4"/>
+    <sheet name="PostThread" sheetId="8" r:id="rId5"/>
+    <sheet name="Reply" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -269,6 +271,95 @@
   </si>
   <si>
     <t>Text to be searched</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.</t>
+  </si>
+  <si>
+    <t>Test Thread For Verification</t>
+  </si>
+  <si>
+    <t>4Cha</t>
+  </si>
+  <si>
+    <t>Tag1 Tag2 Tag3 Tag4 Tag5 Tag6 Tag7</t>
+  </si>
+  <si>
+    <t>Test Thread for 10000 Characters</t>
+  </si>
+  <si>
+    <t>thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.</t>
+  </si>
+  <si>
+    <t>New Title after Editing</t>
+  </si>
+  <si>
+    <t>New Description for Editing the Thread</t>
+  </si>
+  <si>
+    <t>Reason for Editing</t>
+  </si>
+  <si>
+    <t>New Edited Thread</t>
+  </si>
+  <si>
+    <t>New Title for Delete Thread</t>
+  </si>
+  <si>
+    <t>Description for Deleting the Thread</t>
   </si>
 </sst>
 </file>
@@ -358,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -371,6 +462,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C94A49-4B67-4798-B108-0CA8681B408E}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1487,4 +1590,136 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A1A93-EC15-4B78-A239-05292B903CBF}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E571A9A-9C36-4D2A-92D5-3D3F4E8EFB6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3BE9FF-11B5-4046-933A-20486F5C6BD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD7CF0-9967-4AFF-9BC9-95A0C1020682}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -360,6 +360,53 @@
   </si>
   <si>
     <t>Description for Deleting the Thread</t>
+  </si>
+  <si>
+    <t>thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+Test more than 10000 Characters
+ Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+Every Java thread is created and controlled by the java.lang.Thread class.
+thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
+In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -474,6 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1596,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A1A93-EC15-4B78-A239-05292B903CBF}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,12 +1762,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E571A9A-9C36-4D2A-92D5-3D3F4E8EFB6B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD7CF0-9967-4AFF-9BC9-95A0C1020682}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48842E19-9A4F-4B1E-A354-1894F99112C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Disc_CategoriesLogin" sheetId="7" r:id="rId4"/>
     <sheet name="PostThread" sheetId="8" r:id="rId5"/>
     <sheet name="Reply" sheetId="9" r:id="rId6"/>
+    <sheet name="EditProfile" sheetId="10" r:id="rId7"/>
+    <sheet name="EditPassword" sheetId="11" r:id="rId8"/>
+    <sheet name="MemberList" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t>Username</t>
   </si>
@@ -407,6 +410,69 @@
 Every Java thread is created and controlled by the java.lang.Thread class.
 thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.
 In Java, creating a thread is accomplished by implementing an interface and extending a class. Every Java thread is created and controlled by the java.lang.Thread class.thread, in the context of Java, is the path followed when executing a program. All Java programs have at least one thread, known as the main thread, which is created by the Java Virtual Machine (JVM) at the program’s start, when the main() method is invoked with the main thread.</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>99505</t>
+  </si>
+  <si>
+    <t>Current Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Test12345</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>Test67890</t>
+  </si>
+  <si>
+    <t>vivek.chopade@vlwebtech.com</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>@Vivek28</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Recipients</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Test Title</t>
+  </si>
+  <si>
+    <t>Description for the message to be sent</t>
   </si>
 </sst>
 </file>
@@ -496,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -522,6 +588,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -803,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A2BC1-2F30-4A31-B3AD-FF821F0E9873}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +889,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -831,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -839,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -847,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -855,15 +929,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -871,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -879,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -887,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -895,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -905,13 +981,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Test@1234" xr:uid="{CCFBD652-6AC5-4D3F-9DE0-43520D8C794C}"/>
-    <hyperlink ref="B5" r:id="rId2" display="Test@1234" xr:uid="{52736E02-0160-4DB6-B014-FB00E960350F}"/>
-    <hyperlink ref="B3" r:id="rId3" display="Test@1234" xr:uid="{CCAE8BD7-8495-4CE4-B660-B6E9E311AFE5}"/>
-    <hyperlink ref="B8" r:id="rId4" display="Test@1234" xr:uid="{285103DA-AD1C-4B2B-A880-8BECBE42BCF1}"/>
-    <hyperlink ref="B9" r:id="rId5" display="Test@1234" xr:uid="{CDDFDEF6-959A-427A-B126-E3363A84D71F}"/>
-    <hyperlink ref="B10" r:id="rId6" display="Test@1234" xr:uid="{55607F6F-99D5-4841-8E4B-7E00888EF180}"/>
-    <hyperlink ref="B11" r:id="rId7" display="Test@1234" xr:uid="{2E2AFAD9-4767-45DD-B2B3-7509F961B790}"/>
+    <hyperlink ref="B5" r:id="rId1" display="Test@1234" xr:uid="{52736E02-0160-4DB6-B014-FB00E960350F}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Test@1234" xr:uid="{CCAE8BD7-8495-4CE4-B660-B6E9E311AFE5}"/>
+    <hyperlink ref="B8" r:id="rId3" display="Test@1234" xr:uid="{285103DA-AD1C-4B2B-A880-8BECBE42BCF1}"/>
+    <hyperlink ref="B9" r:id="rId4" display="Test@1234" xr:uid="{CDDFDEF6-959A-427A-B126-E3363A84D71F}"/>
+    <hyperlink ref="B10" r:id="rId5" display="Test@1234" xr:uid="{55607F6F-99D5-4841-8E4B-7E00888EF180}"/>
+    <hyperlink ref="B11" r:id="rId6" display="Test@1234" xr:uid="{2E2AFAD9-4767-45DD-B2B3-7509F961B790}"/>
+    <hyperlink ref="B6" r:id="rId7" display="Test@1234" xr:uid="{120659FE-2E4E-4603-808E-AE8D4B39F134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -1594,18 +1670,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E684704-4DB2-4239-AF97-434B602C99DF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1624,17 +1702,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
+      <c r="B3" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="10"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Test@1234" xr:uid="{5C2E4587-4BCE-4703-ACC9-8436170EB398}"/>
+    <hyperlink ref="H4" r:id="rId1" display="Test@1234" xr:uid="{1B53734C-BEC0-4911-8D34-E67B1CCE9B0D}"/>
+    <hyperlink ref="A3" r:id="rId2" display="vivek.chopade@vlwebtech.com" xr:uid="{CFD269B9-ADF4-4609-BA87-051ACBC6C900}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{C1F62D83-8A90-4435-A858-3A674A49A78C}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{B4C468AB-D603-4B44-B6DE-6A128626FAED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1764,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E571A9A-9C36-4D2A-92D5-3D3F4E8EFB6B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1796,4 +1906,274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22735D93-AC67-4E2E-8A67-12D14B386115}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE03138B-ADAA-4B76-B0D1-25DDACB87438}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{B5652D63-BF96-4858-AD78-C69028BB1D2C}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{E7210711-6B25-41DD-B55E-7ABD68624BCF}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{9EE08CF1-5E99-44BD-9794-2B4418C994E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D69554-005B-446A-986E-EDDFA46784E1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
+++ b/src/main/java/com/agriville/qa/testdata/Agriville.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48842E19-9A4F-4B1E-A354-1894F99112C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C31146-3F63-4228-B5D1-B733960C28A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="EditProfile" sheetId="10" r:id="rId7"/>
     <sheet name="EditPassword" sheetId="11" r:id="rId8"/>
     <sheet name="MemberList" sheetId="12" r:id="rId9"/>
+    <sheet name="QuickNavigation" sheetId="13" r:id="rId10"/>
+    <sheet name="Messages" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
   <si>
     <t>Username</t>
   </si>
@@ -473,13 +475,184 @@
   </si>
   <si>
     <t>Description for the message to be sent</t>
+  </si>
+  <si>
+    <t>Name of Navigators</t>
+  </si>
+  <si>
+    <t>Site Areas</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Private Messages</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Who's Online</t>
+  </si>
+  <si>
+    <t>Search Forums</t>
+  </si>
+  <si>
+    <t>Forums Home</t>
+  </si>
+  <si>
+    <t>Forums</t>
+  </si>
+  <si>
+    <t>Beef Production</t>
+  </si>
+  <si>
+    <t>Commodity Marketing</t>
+  </si>
+  <si>
+    <t>Computers &amp; Internet</t>
+  </si>
+  <si>
+    <t>Crop Production &amp; Forage</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Farm Management</t>
+  </si>
+  <si>
+    <t>Fur &amp; Sheep</t>
+  </si>
+  <si>
+    <t>Horticultural Crops</t>
+  </si>
+  <si>
+    <t>Machinery &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Pork &amp; Poultry Production</t>
+  </si>
+  <si>
+    <t>Pulse &amp; Special Crops</t>
+  </si>
+  <si>
+    <t>Rural Issues</t>
+  </si>
+  <si>
+    <t>Spiritual Vignettes</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Organic Farming</t>
+  </si>
+  <si>
+    <t>Sub Pages Values</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>INBOX</t>
+  </si>
+  <si>
+    <t>SUBSCRIPTIONS</t>
+  </si>
+  <si>
+    <t>Disc Categories</t>
+  </si>
+  <si>
+    <t>Selected Messages</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Mark as read</t>
+  </si>
+  <si>
+    <t>Mark as unread</t>
+  </si>
+  <si>
+    <t>Download as XML</t>
+  </si>
+  <si>
+    <t>Download as CSV</t>
+  </si>
+  <si>
+    <t>Download as TEXT</t>
+  </si>
+  <si>
+    <t>Deselect All Messages</t>
+  </si>
+  <si>
+    <t>Read and Reply Status</t>
+  </si>
+  <si>
+    <t>All Messages</t>
+  </si>
+  <si>
+    <t>Unread Messages</t>
+  </si>
+  <si>
+    <t>Not Replied To</t>
+  </si>
+  <si>
+    <t>Replied To</t>
+  </si>
+  <si>
+    <t>Read Messages</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +671,20 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,6 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,6 +1182,342 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A7C66C-CD95-4062-8853-43E303612120}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2020D45F-110B-421D-A053-C5FA17E6A178}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7A88E2-5435-44A7-B4A2-81D4BAD62FCD}">
   <dimension ref="A1:I17"/>
@@ -1673,7 +2197,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D69554-005B-446A-986E-EDDFA46784E1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
